--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3558.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3558.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.31242647616242</v>
+        <v>0.8710206747055054</v>
       </c>
       <c r="B1">
-        <v>1.53904092970574</v>
+        <v>2.262847185134888</v>
       </c>
       <c r="C1">
-        <v>1.994839248572278</v>
+        <v>1.577043414115906</v>
       </c>
       <c r="D1">
-        <v>4.468284906221718</v>
+        <v>1.386647820472717</v>
       </c>
       <c r="E1">
-        <v>3.865206589911657</v>
+        <v>1.464355111122131</v>
       </c>
     </row>
   </sheetData>
